--- a/Objectifs_BejaouiS.xlsx
+++ b/Objectifs_BejaouiS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amine Ben Jemia\Desktop\Sami-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879D6EF-61C5-4690-8A68-532D70F73505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5837"/>
+    <workbookView xWindow="7980" yWindow="2184" windowWidth="10428" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,20 +42,20 @@
     <t>% VR</t>
   </si>
   <si>
-    <t>% EX</t>
+    <t>charges</t>
   </si>
   <si>
-    <t>charges</t>
+    <t>% excellence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +113,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -124,18 +125,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,20 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.921875" customWidth="1"/>
-    <col min="3" max="3" width="16.69140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2016</v>
       </c>
@@ -471,7 +472,7 @@
         <v>38521.599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2017</v>
       </c>
@@ -494,7 +495,7 @@
         <v>50511.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
@@ -517,7 +518,7 @@
         <v>50813.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
@@ -528,7 +529,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -539,7 +540,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2021</v>
       </c>
@@ -550,7 +551,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -561,7 +562,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
@@ -572,7 +573,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -583,7 +584,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2025</v>
       </c>

--- a/Objectifs_BejaouiS.xlsx
+++ b/Objectifs_BejaouiS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amine Ben Jemia\Desktop\Sami-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amine\Sami-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879D6EF-61C5-4690-8A68-532D70F73505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AAF71-E935-4074-AFEA-92513E4F63BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2184" windowWidth="10428" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,16 +417,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,12 +449,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2016</v>
       </c>
       <c r="B2" s="4">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="C2" s="4">
         <v>600000</v>
@@ -468,19 +468,17 @@
       <c r="F2" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="4">
-        <v>38521.599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2017</v>
       </c>
       <c r="B3" s="4">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="C3" s="4">
-        <v>660000</v>
+        <v>650000</v>
       </c>
       <c r="D3" s="5">
         <v>0.02</v>
@@ -491,19 +489,17 @@
       <c r="F3" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="4">
-        <v>50511.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
       <c r="B4" s="4">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="C4" s="4">
-        <v>730000</v>
+        <v>680000</v>
       </c>
       <c r="D4" s="5">
         <v>0.02</v>
@@ -514,44 +510,74 @@
       <c r="F4" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="4">
-        <v>50813.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="4">
+        <v>310000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>710000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>330000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>750000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>64943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2021</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="4">
+        <v>350000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>800000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -562,7 +588,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
@@ -573,7 +599,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -584,7 +610,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2025</v>
       </c>
